--- a/测试数据/Doa导入脚本.xlsx
+++ b/测试数据/Doa导入脚本.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2340" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="fee" sheetId="1" r:id="rId1"/>
-    <sheet name="pay" sheetId="2" r:id="rId2"/>
+    <sheet name="项目" sheetId="3" r:id="rId1"/>
+    <sheet name="fee" sheetId="1" r:id="rId2"/>
+    <sheet name="pay" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fee!$B$1:$C$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fee!$B$1:$C$138</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,10 +442,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -3539,11 +3555,11 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
